--- a/doc4phy/WisDragon/管理/个人报销记录/报销单[20130715].xlsx
+++ b/doc4phy/WisDragon/管理/个人报销记录/报销单[20130715].xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+git\github\janetren.github.com\doc4phy\WisDragon\管理\个人报销记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\+git\github\janetren.github.com\doc4phy\WisDragon\管理\个人报销记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="付款" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="175">
   <si>
     <t>现金</t>
   </si>
@@ -1534,10 +1534,6 @@
   <si>
     <t>中餐、晚餐</t>
     <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>池州学院项目投标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10:2013-06手机费</t>
@@ -2690,15 +2686,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2708,74 +2695,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="58" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2783,187 +2875,97 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3000,12 +3002,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4539,9 +4535,9 @@
       <c r="H3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
       <c r="A4" s="126" t="s">
@@ -4551,16 +4547,16 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="229"/>
@@ -4578,113 +4574,113 @@
       <c r="A6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="244" t="s">
+      <c r="B6" s="257" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="244" t="s">
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="257" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="245"/>
-      <c r="I6" s="244" t="s">
+      <c r="H6" s="258"/>
+      <c r="I6" s="257" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="246"/>
-      <c r="K6" s="245"/>
+      <c r="J6" s="259"/>
+      <c r="K6" s="258"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" customHeight="1">
       <c r="A7" s="84"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="242"/>
+      <c r="B7" s="241"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
     </row>
     <row r="8" spans="1:13" ht="24.75" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="242"/>
+      <c r="B8" s="241"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="239"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="239"/>
     </row>
     <row r="9" spans="1:13" ht="24.75" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="248"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="242"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="242"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="239"/>
     </row>
     <row r="10" spans="1:13" ht="24.75" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="248"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="242"/>
+      <c r="B10" s="241"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="239"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="239"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="242"/>
+      <c r="B11" s="241"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="239"/>
     </row>
     <row r="12" spans="1:13" ht="24.75" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="250"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="242"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="239"/>
     </row>
     <row r="13" spans="1:13" ht="24.75" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="242"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="239"/>
     </row>
     <row r="14" spans="1:13" ht="24.75" customHeight="1">
       <c r="A14" s="39" t="s">
@@ -4693,49 +4689,49 @@
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="53"/>
-      <c r="E14" s="243" t="s">
+      <c r="E14" s="252" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="260"/>
-      <c r="G14" s="251">
+      <c r="F14" s="253"/>
+      <c r="G14" s="240">
         <f>SUM(G7:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="242"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="242"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="239"/>
     </row>
     <row r="15" spans="1:13" ht="24.75" customHeight="1">
       <c r="A15" s="50"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="256" t="s">
+      <c r="E15" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="257"/>
-      <c r="G15" s="252" t="str">
+      <c r="F15" s="249"/>
+      <c r="G15" s="244" t="str">
         <f>IF(G14=0,"零",IF(G14-INT(G14)=0,TEXT(G14,"[DBNUM2]")&amp;"元整",IF(INT(G14)=0,IF(INT(G14*10)-G14*10=0,TEXT((INT(G14*10)-INT(G14)*10),"[DBNUM2]")&amp;"角整",IF(INT(G14*10)-INT(G14)*10=0,TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分",TEXT(INT(G14*10)-INT(G14)*10,"[DBNUM2]")&amp;"角"&amp;TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分")),IF(INT(G14*10)-G14*10=0,TEXT(INT(G14),"[DBNUM2]")&amp;"元"&amp;TEXT((INT(G14*10)-INT(G14)*10),"[DBNUM2]")&amp;"角整",TEXT(INT(G14),"[DBNUM2]")&amp;"元"&amp;IF(INT(G14*10)-INT(G14)*10=0,"零",TEXT(INT(G14*10)-INT(G14)*10,"[DBNUM2]")&amp;"角")&amp;TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分"))))</f>
         <v>零</v>
       </c>
-      <c r="H15" s="252"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="253"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="245"/>
     </row>
     <row r="16" spans="1:13" ht="12" customHeight="1">
       <c r="A16" s="51"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="258"/>
-      <c r="F16" s="259"/>
-      <c r="G16" s="254"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="254"/>
-      <c r="K16" s="255"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="247"/>
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="115" t="s">
@@ -5046,30 +5042,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G15:K16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="I7:K7"/>
@@ -5079,6 +5051,30 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G15:K16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.33" right="0.18" top="0.26" bottom="0.25" header="0.17" footer="0.16"/>
@@ -5092,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:AD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5139,12 +5135,12 @@
         <v>99</v>
       </c>
       <c r="R2" s="90"/>
-      <c r="S2" s="286" t="s">
+      <c r="S2" s="303" t="s">
         <v>155</v>
       </c>
-      <c r="T2" s="268"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="269"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="305"/>
       <c r="W2" s="23" t="s">
         <v>21</v>
       </c>
@@ -5176,11 +5172,11 @@
       </c>
       <c r="R3" s="92"/>
       <c r="S3" s="206"/>
-      <c r="T3" s="287">
+      <c r="T3" s="306">
         <v>3</v>
       </c>
-      <c r="U3" s="287"/>
-      <c r="V3" s="288"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="307"/>
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
@@ -5213,18 +5209,18 @@
         <v>146</v>
       </c>
       <c r="R4" s="90"/>
-      <c r="S4" s="289" t="s">
+      <c r="S4" s="308" t="s">
         <v>156</v>
       </c>
-      <c r="T4" s="290"/>
-      <c r="U4" s="290"/>
-      <c r="V4" s="291"/>
+      <c r="T4" s="309"/>
+      <c r="U4" s="309"/>
+      <c r="V4" s="310"/>
       <c r="W4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="262"/>
+      <c r="Y4" s="323"/>
+      <c r="Z4" s="323"/>
+      <c r="AA4" s="324"/>
       <c r="AB4" s="42" t="s">
         <v>9</v>
       </c>
@@ -5250,17 +5246,17 @@
         <v>100</v>
       </c>
       <c r="R5" s="200"/>
-      <c r="S5" s="315">
+      <c r="S5" s="284">
         <v>41470</v>
       </c>
-      <c r="T5" s="315"/>
-      <c r="U5" s="315"/>
-      <c r="V5" s="316"/>
-      <c r="W5" s="263"/>
-      <c r="X5" s="264"/>
-      <c r="Y5" s="264"/>
-      <c r="Z5" s="264"/>
-      <c r="AA5" s="265"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="284"/>
+      <c r="V5" s="285"/>
+      <c r="W5" s="325"/>
+      <c r="X5" s="326"/>
+      <c r="Y5" s="326"/>
+      <c r="Z5" s="326"/>
+      <c r="AA5" s="327"/>
       <c r="AB5" s="45" t="s">
         <v>28</v>
       </c>
@@ -5269,29 +5265,29 @@
       <c r="A6" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="272"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="329"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="287"/>
       <c r="G6" s="224"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="272"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="287"/>
       <c r="J6" s="224"/>
-      <c r="K6" s="271"/>
-      <c r="L6" s="272"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="287"/>
       <c r="M6" s="224"/>
-      <c r="N6" s="271"/>
-      <c r="O6" s="272"/>
+      <c r="N6" s="286"/>
+      <c r="O6" s="287"/>
       <c r="P6" s="224"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="272"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="287"/>
       <c r="S6" s="224"/>
-      <c r="T6" s="271"/>
-      <c r="U6" s="272"/>
+      <c r="T6" s="286"/>
+      <c r="U6" s="287"/>
       <c r="V6" s="224"/>
-      <c r="W6" s="271"/>
-      <c r="X6" s="272"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="287"/>
       <c r="Y6" s="36"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37"/>
@@ -5305,27 +5301,27 @@
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="301"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="283"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="283"/>
-      <c r="N7" s="284"/>
-      <c r="O7" s="285"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="281"/>
-      <c r="R7" s="282"/>
-      <c r="S7" s="280"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="282"/>
-      <c r="V7" s="280"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="282"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="318"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="318"/>
+      <c r="J7" s="319"/>
+      <c r="K7" s="317"/>
+      <c r="L7" s="318"/>
+      <c r="M7" s="319"/>
+      <c r="N7" s="317"/>
+      <c r="O7" s="318"/>
+      <c r="P7" s="313"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="315"/>
+      <c r="S7" s="313"/>
+      <c r="T7" s="314"/>
+      <c r="U7" s="315"/>
+      <c r="V7" s="313"/>
+      <c r="W7" s="314"/>
+      <c r="X7" s="315"/>
       <c r="Y7" s="45"/>
       <c r="AB7" s="45"/>
       <c r="AD7" s="57"/>
@@ -5365,9 +5361,9 @@
       <c r="A9" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="327"/>
-      <c r="E9" s="328"/>
-      <c r="F9" s="329"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="263"/>
       <c r="G9" s="45"/>
       <c r="J9" s="45"/>
       <c r="M9" s="45"/>
@@ -5380,8 +5376,8 @@
     </row>
     <row r="10" spans="1:30" ht="15">
       <c r="A10" s="17"/>
-      <c r="B10" s="268"/>
-      <c r="C10" s="269"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="305"/>
       <c r="D10" s="45"/>
       <c r="G10" s="45"/>
       <c r="J10" s="45"/>
@@ -5389,11 +5385,11 @@
       <c r="P10" s="45"/>
       <c r="S10" s="45"/>
       <c r="V10" s="45"/>
-      <c r="Y10" s="317" t="s">
+      <c r="Y10" s="288" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="318"/>
-      <c r="AA10" s="319"/>
+      <c r="Z10" s="289"/>
+      <c r="AA10" s="290"/>
       <c r="AB10" s="42" t="s">
         <v>18</v>
       </c>
@@ -5439,33 +5435,33 @@
         <v>36</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="274"/>
-      <c r="E12" s="275"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="274"/>
-      <c r="H12" s="275"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="274"/>
-      <c r="K12" s="275"/>
-      <c r="L12" s="276"/>
-      <c r="M12" s="274"/>
-      <c r="N12" s="275"/>
-      <c r="O12" s="276"/>
-      <c r="P12" s="274"/>
-      <c r="Q12" s="275"/>
-      <c r="R12" s="276"/>
-      <c r="S12" s="274"/>
-      <c r="T12" s="275"/>
-      <c r="U12" s="276"/>
-      <c r="V12" s="274"/>
-      <c r="W12" s="275"/>
-      <c r="X12" s="276"/>
-      <c r="Y12" s="274">
+      <c r="D12" s="264"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="264"/>
+      <c r="K12" s="265"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="264"/>
+      <c r="N12" s="265"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="264"/>
+      <c r="T12" s="265"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="264"/>
+      <c r="W12" s="265"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="264">
         <f>SUM(D12:X12)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="275"/>
-      <c r="AA12" s="276"/>
+      <c r="Z12" s="265"/>
+      <c r="AA12" s="266"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
@@ -5478,33 +5474,33 @@
         <v>37</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="274"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="276"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="278"/>
-      <c r="I13" s="279"/>
-      <c r="J13" s="277"/>
-      <c r="K13" s="278"/>
-      <c r="L13" s="279"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="278"/>
-      <c r="O13" s="279"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="278"/>
-      <c r="R13" s="279"/>
-      <c r="S13" s="277"/>
-      <c r="T13" s="278"/>
-      <c r="U13" s="279"/>
-      <c r="V13" s="277"/>
-      <c r="W13" s="278"/>
-      <c r="X13" s="279"/>
-      <c r="Y13" s="274">
+      <c r="D13" s="264"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="268"/>
+      <c r="L13" s="269"/>
+      <c r="M13" s="267"/>
+      <c r="N13" s="268"/>
+      <c r="O13" s="269"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="269"/>
+      <c r="S13" s="267"/>
+      <c r="T13" s="268"/>
+      <c r="U13" s="269"/>
+      <c r="V13" s="267"/>
+      <c r="W13" s="268"/>
+      <c r="X13" s="269"/>
+      <c r="Y13" s="264">
         <f t="shared" ref="Y13:Y23" si="0">SUM(D13:X13)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="275"/>
-      <c r="AA13" s="276"/>
+      <c r="Z13" s="265"/>
+      <c r="AA13" s="266"/>
       <c r="AB13" s="19"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
@@ -5517,33 +5513,33 @@
         <v>38</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="274"/>
-      <c r="E14" s="275"/>
-      <c r="F14" s="276"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="278"/>
-      <c r="I14" s="279"/>
-      <c r="J14" s="277"/>
-      <c r="K14" s="278"/>
-      <c r="L14" s="279"/>
-      <c r="M14" s="277"/>
-      <c r="N14" s="278"/>
-      <c r="O14" s="279"/>
-      <c r="P14" s="277"/>
-      <c r="Q14" s="278"/>
-      <c r="R14" s="279"/>
-      <c r="S14" s="277"/>
-      <c r="T14" s="278"/>
-      <c r="U14" s="279"/>
-      <c r="V14" s="277"/>
-      <c r="W14" s="278"/>
-      <c r="X14" s="279"/>
-      <c r="Y14" s="274">
+      <c r="D14" s="264"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="269"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="269"/>
+      <c r="M14" s="267"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="269"/>
+      <c r="P14" s="267"/>
+      <c r="Q14" s="268"/>
+      <c r="R14" s="269"/>
+      <c r="S14" s="267"/>
+      <c r="T14" s="268"/>
+      <c r="U14" s="269"/>
+      <c r="V14" s="267"/>
+      <c r="W14" s="268"/>
+      <c r="X14" s="269"/>
+      <c r="Y14" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="275"/>
-      <c r="AA14" s="276"/>
+      <c r="Z14" s="265"/>
+      <c r="AA14" s="266"/>
       <c r="AB14" s="19"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
@@ -5556,33 +5552,33 @@
         <v>39</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="278"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="277"/>
-      <c r="K15" s="278"/>
-      <c r="L15" s="279"/>
-      <c r="M15" s="277"/>
-      <c r="N15" s="278"/>
-      <c r="O15" s="279"/>
-      <c r="P15" s="277"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="279"/>
-      <c r="S15" s="277"/>
-      <c r="T15" s="278"/>
-      <c r="U15" s="279"/>
-      <c r="V15" s="277"/>
-      <c r="W15" s="278"/>
-      <c r="X15" s="279"/>
-      <c r="Y15" s="274">
+      <c r="D15" s="264"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="267"/>
+      <c r="K15" s="268"/>
+      <c r="L15" s="269"/>
+      <c r="M15" s="267"/>
+      <c r="N15" s="268"/>
+      <c r="O15" s="269"/>
+      <c r="P15" s="267"/>
+      <c r="Q15" s="268"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="267"/>
+      <c r="T15" s="268"/>
+      <c r="U15" s="269"/>
+      <c r="V15" s="267"/>
+      <c r="W15" s="268"/>
+      <c r="X15" s="269"/>
+      <c r="Y15" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="275"/>
-      <c r="AA15" s="276"/>
+      <c r="Z15" s="265"/>
+      <c r="AA15" s="266"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
@@ -5595,33 +5591,33 @@
         <v>44</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="274"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="276"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="278"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="279"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="278"/>
-      <c r="O16" s="279"/>
-      <c r="P16" s="277"/>
-      <c r="Q16" s="278"/>
-      <c r="R16" s="279"/>
-      <c r="S16" s="277"/>
-      <c r="T16" s="278"/>
-      <c r="U16" s="279"/>
-      <c r="V16" s="277"/>
-      <c r="W16" s="278"/>
-      <c r="X16" s="279"/>
-      <c r="Y16" s="274">
+      <c r="D16" s="264"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="269"/>
+      <c r="J16" s="267"/>
+      <c r="K16" s="268"/>
+      <c r="L16" s="269"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="269"/>
+      <c r="P16" s="267"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="269"/>
+      <c r="S16" s="267"/>
+      <c r="T16" s="268"/>
+      <c r="U16" s="269"/>
+      <c r="V16" s="267"/>
+      <c r="W16" s="268"/>
+      <c r="X16" s="269"/>
+      <c r="Y16" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="275"/>
-      <c r="AA16" s="276"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="266"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -5632,54 +5628,54 @@
         <v>35</v>
       </c>
       <c r="C17" s="202"/>
-      <c r="D17" s="307">
+      <c r="D17" s="291">
         <f>SUM(D12:F16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="308"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="307">
+      <c r="E17" s="292"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="291">
         <f>SUM(G12:I16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="308"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="307">
+      <c r="H17" s="292"/>
+      <c r="I17" s="293"/>
+      <c r="J17" s="291">
         <f>SUM(J12:L16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="308"/>
-      <c r="L17" s="309"/>
-      <c r="M17" s="307">
+      <c r="K17" s="292"/>
+      <c r="L17" s="293"/>
+      <c r="M17" s="291">
         <f>SUM(M12:O16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="308"/>
-      <c r="O17" s="309"/>
-      <c r="P17" s="307">
+      <c r="N17" s="292"/>
+      <c r="O17" s="293"/>
+      <c r="P17" s="291">
         <f>SUM(P12:R16)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="308"/>
-      <c r="R17" s="309"/>
-      <c r="S17" s="307">
+      <c r="Q17" s="292"/>
+      <c r="R17" s="293"/>
+      <c r="S17" s="291">
         <f>SUM(S12:U16)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="308"/>
-      <c r="U17" s="309"/>
-      <c r="V17" s="307">
+      <c r="T17" s="292"/>
+      <c r="U17" s="293"/>
+      <c r="V17" s="291">
         <f>SUM(V12:X16)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="308"/>
-      <c r="X17" s="309"/>
-      <c r="Y17" s="307">
+      <c r="W17" s="292"/>
+      <c r="X17" s="293"/>
+      <c r="Y17" s="291">
         <f>SUM(Y12:AA16)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="308"/>
-      <c r="AA17" s="309"/>
+      <c r="Z17" s="292"/>
+      <c r="AA17" s="293"/>
       <c r="AB17" s="19"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
@@ -5692,33 +5688,33 @@
         <v>12</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="278"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="278"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="278"/>
-      <c r="L18" s="279"/>
-      <c r="M18" s="277"/>
-      <c r="N18" s="278"/>
-      <c r="O18" s="279"/>
-      <c r="P18" s="277"/>
-      <c r="Q18" s="278"/>
-      <c r="R18" s="279"/>
-      <c r="S18" s="277"/>
-      <c r="T18" s="278"/>
-      <c r="U18" s="279"/>
-      <c r="V18" s="277"/>
-      <c r="W18" s="278"/>
-      <c r="X18" s="279"/>
-      <c r="Y18" s="274">
+      <c r="D18" s="267"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="269"/>
+      <c r="J18" s="267"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="269"/>
+      <c r="M18" s="267"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="269"/>
+      <c r="P18" s="267"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="267"/>
+      <c r="T18" s="268"/>
+      <c r="U18" s="269"/>
+      <c r="V18" s="267"/>
+      <c r="W18" s="268"/>
+      <c r="X18" s="269"/>
+      <c r="Y18" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="275"/>
-      <c r="AA18" s="276"/>
+      <c r="Z18" s="265"/>
+      <c r="AA18" s="266"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
@@ -5732,33 +5728,33 @@
         <v>97</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="277"/>
-      <c r="E19" s="278"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="278"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="277"/>
-      <c r="K19" s="278"/>
-      <c r="L19" s="279"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="278"/>
-      <c r="O19" s="279"/>
-      <c r="P19" s="277"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="279"/>
-      <c r="S19" s="277"/>
-      <c r="T19" s="278"/>
-      <c r="U19" s="279"/>
-      <c r="V19" s="277"/>
-      <c r="W19" s="278"/>
-      <c r="X19" s="279"/>
-      <c r="Y19" s="274">
+      <c r="D19" s="267"/>
+      <c r="E19" s="268"/>
+      <c r="F19" s="269"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="269"/>
+      <c r="J19" s="267"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="269"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="269"/>
+      <c r="P19" s="267"/>
+      <c r="Q19" s="268"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="267"/>
+      <c r="T19" s="268"/>
+      <c r="U19" s="269"/>
+      <c r="V19" s="267"/>
+      <c r="W19" s="268"/>
+      <c r="X19" s="269"/>
+      <c r="Y19" s="264">
         <f>SUM(D19:X19)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="275"/>
-      <c r="AA19" s="276"/>
+      <c r="Z19" s="265"/>
+      <c r="AA19" s="266"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
@@ -5772,36 +5768,36 @@
         <v>98</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="274">
+      <c r="D20" s="264">
         <f>45+10</f>
         <v>55</v>
       </c>
-      <c r="E20" s="275"/>
-      <c r="F20" s="276"/>
-      <c r="G20" s="277"/>
-      <c r="H20" s="278"/>
-      <c r="I20" s="279"/>
-      <c r="J20" s="277"/>
-      <c r="K20" s="278"/>
-      <c r="L20" s="279"/>
-      <c r="M20" s="277"/>
-      <c r="N20" s="278"/>
-      <c r="O20" s="279"/>
-      <c r="P20" s="277"/>
-      <c r="Q20" s="278"/>
-      <c r="R20" s="279"/>
-      <c r="S20" s="277"/>
-      <c r="T20" s="278"/>
-      <c r="U20" s="279"/>
-      <c r="V20" s="277"/>
-      <c r="W20" s="278"/>
-      <c r="X20" s="279"/>
-      <c r="Y20" s="274">
+      <c r="E20" s="265"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="267"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="267"/>
+      <c r="K20" s="268"/>
+      <c r="L20" s="269"/>
+      <c r="M20" s="267"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="269"/>
+      <c r="P20" s="267"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="269"/>
+      <c r="S20" s="267"/>
+      <c r="T20" s="268"/>
+      <c r="U20" s="269"/>
+      <c r="V20" s="267"/>
+      <c r="W20" s="268"/>
+      <c r="X20" s="269"/>
+      <c r="Y20" s="264">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="Z20" s="275"/>
-      <c r="AA20" s="276"/>
+      <c r="Z20" s="265"/>
+      <c r="AA20" s="266"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
@@ -5815,35 +5811,35 @@
         <v>43</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="274">
+      <c r="D21" s="264">
         <v>300</v>
       </c>
-      <c r="E21" s="275"/>
-      <c r="F21" s="276"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="278"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="277"/>
-      <c r="K21" s="278"/>
-      <c r="L21" s="279"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="279"/>
-      <c r="P21" s="277"/>
-      <c r="Q21" s="278"/>
-      <c r="R21" s="279"/>
-      <c r="S21" s="277"/>
-      <c r="T21" s="278"/>
-      <c r="U21" s="279"/>
-      <c r="V21" s="277"/>
-      <c r="W21" s="278"/>
-      <c r="X21" s="279"/>
-      <c r="Y21" s="274">
+      <c r="E21" s="265"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="267"/>
+      <c r="H21" s="268"/>
+      <c r="I21" s="269"/>
+      <c r="J21" s="267"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="269"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="269"/>
+      <c r="P21" s="267"/>
+      <c r="Q21" s="268"/>
+      <c r="R21" s="269"/>
+      <c r="S21" s="267"/>
+      <c r="T21" s="268"/>
+      <c r="U21" s="269"/>
+      <c r="V21" s="267"/>
+      <c r="W21" s="268"/>
+      <c r="X21" s="269"/>
+      <c r="Y21" s="264">
         <f>SUM(D21:X21)</f>
         <v>300</v>
       </c>
-      <c r="Z21" s="275"/>
-      <c r="AA21" s="276"/>
+      <c r="Z21" s="265"/>
+      <c r="AA21" s="266"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -5857,33 +5853,33 @@
         <v>150</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="274"/>
-      <c r="E22" s="275"/>
-      <c r="F22" s="276"/>
-      <c r="G22" s="277"/>
-      <c r="H22" s="278"/>
-      <c r="I22" s="279"/>
-      <c r="J22" s="277"/>
-      <c r="K22" s="278"/>
-      <c r="L22" s="279"/>
-      <c r="M22" s="277"/>
-      <c r="N22" s="278"/>
-      <c r="O22" s="279"/>
-      <c r="P22" s="277"/>
-      <c r="Q22" s="278"/>
-      <c r="R22" s="279"/>
-      <c r="S22" s="277"/>
-      <c r="T22" s="278"/>
-      <c r="U22" s="279"/>
-      <c r="V22" s="274"/>
-      <c r="W22" s="275"/>
-      <c r="X22" s="276"/>
-      <c r="Y22" s="274">
+      <c r="D22" s="264"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="267"/>
+      <c r="H22" s="268"/>
+      <c r="I22" s="269"/>
+      <c r="J22" s="267"/>
+      <c r="K22" s="268"/>
+      <c r="L22" s="269"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="268"/>
+      <c r="O22" s="269"/>
+      <c r="P22" s="267"/>
+      <c r="Q22" s="268"/>
+      <c r="R22" s="269"/>
+      <c r="S22" s="267"/>
+      <c r="T22" s="268"/>
+      <c r="U22" s="269"/>
+      <c r="V22" s="264"/>
+      <c r="W22" s="265"/>
+      <c r="X22" s="266"/>
+      <c r="Y22" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="275"/>
-      <c r="AA22" s="276"/>
+      <c r="Z22" s="265"/>
+      <c r="AA22" s="266"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -5897,33 +5893,33 @@
         <v>30</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="274"/>
-      <c r="E23" s="275"/>
-      <c r="F23" s="276"/>
-      <c r="G23" s="274"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="276"/>
-      <c r="J23" s="274"/>
-      <c r="K23" s="275"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="274"/>
-      <c r="N23" s="275"/>
-      <c r="O23" s="276"/>
-      <c r="P23" s="274"/>
-      <c r="Q23" s="275"/>
-      <c r="R23" s="276"/>
-      <c r="S23" s="274"/>
-      <c r="T23" s="275"/>
-      <c r="U23" s="276"/>
-      <c r="V23" s="274"/>
-      <c r="W23" s="275"/>
-      <c r="X23" s="276"/>
-      <c r="Y23" s="274">
+      <c r="D23" s="264"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="264"/>
+      <c r="H23" s="265"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="264"/>
+      <c r="K23" s="265"/>
+      <c r="L23" s="266"/>
+      <c r="M23" s="264"/>
+      <c r="N23" s="265"/>
+      <c r="O23" s="266"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="265"/>
+      <c r="R23" s="266"/>
+      <c r="S23" s="264"/>
+      <c r="T23" s="265"/>
+      <c r="U23" s="266"/>
+      <c r="V23" s="264"/>
+      <c r="W23" s="265"/>
+      <c r="X23" s="266"/>
+      <c r="Y23" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="275"/>
-      <c r="AA23" s="276"/>
+      <c r="Z23" s="265"/>
+      <c r="AA23" s="266"/>
       <c r="AB23" s="19"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -5936,33 +5932,33 @@
         <v>31</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="274"/>
-      <c r="E24" s="275"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="274"/>
-      <c r="H24" s="275"/>
-      <c r="I24" s="276"/>
-      <c r="J24" s="274"/>
-      <c r="K24" s="275"/>
-      <c r="L24" s="276"/>
-      <c r="M24" s="320"/>
-      <c r="N24" s="275"/>
-      <c r="O24" s="276"/>
-      <c r="P24" s="274"/>
-      <c r="Q24" s="275"/>
-      <c r="R24" s="276"/>
-      <c r="S24" s="274"/>
-      <c r="T24" s="275"/>
-      <c r="U24" s="276"/>
-      <c r="V24" s="274"/>
-      <c r="W24" s="275"/>
-      <c r="X24" s="276"/>
-      <c r="Y24" s="274">
+      <c r="D24" s="264"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="264"/>
+      <c r="H24" s="265"/>
+      <c r="I24" s="266"/>
+      <c r="J24" s="264"/>
+      <c r="K24" s="265"/>
+      <c r="L24" s="266"/>
+      <c r="M24" s="277"/>
+      <c r="N24" s="265"/>
+      <c r="O24" s="266"/>
+      <c r="P24" s="264"/>
+      <c r="Q24" s="265"/>
+      <c r="R24" s="266"/>
+      <c r="S24" s="264"/>
+      <c r="T24" s="265"/>
+      <c r="U24" s="266"/>
+      <c r="V24" s="264"/>
+      <c r="W24" s="265"/>
+      <c r="X24" s="266"/>
+      <c r="Y24" s="264">
         <f>V24+S24+P24+M24+J24+G24+D24</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="275"/>
-      <c r="AA24" s="276"/>
+      <c r="Z24" s="265"/>
+      <c r="AA24" s="266"/>
       <c r="AB24" s="19"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
@@ -5973,59 +5969,59 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="274">
+      <c r="D25" s="264">
         <f>SUM(D17:F24)</f>
         <v>355</v>
       </c>
-      <c r="E25" s="275"/>
-      <c r="F25" s="276"/>
-      <c r="G25" s="274">
+      <c r="E25" s="265"/>
+      <c r="F25" s="266"/>
+      <c r="G25" s="264">
         <f>SUM(G17:I24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="275"/>
-      <c r="I25" s="276"/>
-      <c r="J25" s="274">
+      <c r="H25" s="265"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="264">
         <f>SUM(J17:L24)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="275"/>
-      <c r="L25" s="276"/>
-      <c r="M25" s="274">
+      <c r="K25" s="265"/>
+      <c r="L25" s="266"/>
+      <c r="M25" s="264">
         <f>SUM(M17:O24)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="275"/>
-      <c r="O25" s="276"/>
-      <c r="P25" s="274">
+      <c r="N25" s="265"/>
+      <c r="O25" s="266"/>
+      <c r="P25" s="264">
         <f>SUM(P17:R24)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="275"/>
-      <c r="R25" s="276"/>
-      <c r="S25" s="274">
+      <c r="Q25" s="265"/>
+      <c r="R25" s="266"/>
+      <c r="S25" s="264">
         <f>SUM(S17:U24)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="275"/>
-      <c r="U25" s="276"/>
-      <c r="V25" s="274">
+      <c r="T25" s="265"/>
+      <c r="U25" s="266"/>
+      <c r="V25" s="264">
         <f>SUM(V17:X24)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="275"/>
-      <c r="X25" s="276"/>
+      <c r="W25" s="265"/>
+      <c r="X25" s="266"/>
       <c r="Y25" s="20" t="s">
         <v>92</v>
       </c>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
-      <c r="AB25" s="313">
+      <c r="AB25" s="296">
         <f>SUM(Y17:Y24)</f>
         <v>355</v>
       </c>
-      <c r="AC25" s="314"/>
-      <c r="AD25" s="314"/>
+      <c r="AC25" s="297"/>
+      <c r="AD25" s="297"/>
     </row>
     <row r="26" spans="1:32" ht="18" customHeight="1">
       <c r="A26" s="43" t="s">
@@ -6033,29 +6029,27 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="321" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="322"/>
-      <c r="F26" s="322"/>
-      <c r="G26" s="322"/>
-      <c r="H26" s="322"/>
-      <c r="I26" s="322"/>
-      <c r="J26" s="322"/>
-      <c r="K26" s="322"/>
-      <c r="L26" s="322"/>
-      <c r="M26" s="322"/>
-      <c r="N26" s="322"/>
-      <c r="O26" s="322"/>
-      <c r="P26" s="322"/>
-      <c r="Q26" s="322"/>
-      <c r="R26" s="322"/>
-      <c r="S26" s="322"/>
-      <c r="T26" s="322"/>
-      <c r="U26" s="322"/>
-      <c r="V26" s="322"/>
-      <c r="W26" s="322"/>
-      <c r="X26" s="323"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="279"/>
+      <c r="J26" s="279"/>
+      <c r="K26" s="279"/>
+      <c r="L26" s="279"/>
+      <c r="M26" s="279"/>
+      <c r="N26" s="279"/>
+      <c r="O26" s="279"/>
+      <c r="P26" s="279"/>
+      <c r="Q26" s="279"/>
+      <c r="R26" s="279"/>
+      <c r="S26" s="279"/>
+      <c r="T26" s="279"/>
+      <c r="U26" s="279"/>
+      <c r="V26" s="279"/>
+      <c r="W26" s="279"/>
+      <c r="X26" s="280"/>
       <c r="Y26" s="20" t="s">
         <v>22</v>
       </c>
@@ -6068,20 +6062,20 @@
     <row r="27" spans="1:32" ht="18" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="306"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
-      <c r="H27" s="306"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
-      <c r="K27" s="306"/>
-      <c r="L27" s="306"/>
-      <c r="M27" s="306"/>
-      <c r="N27" s="306"/>
-      <c r="O27" s="306"/>
-      <c r="P27" s="306"/>
+      <c r="C27" s="301"/>
+      <c r="D27" s="302"/>
+      <c r="E27" s="302"/>
+      <c r="F27" s="302"/>
+      <c r="G27" s="302"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="302"/>
+      <c r="J27" s="302"/>
+      <c r="K27" s="302"/>
+      <c r="L27" s="302"/>
+      <c r="M27" s="302"/>
+      <c r="N27" s="302"/>
+      <c r="O27" s="302"/>
+      <c r="P27" s="302"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -6106,29 +6100,29 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="324" t="str">
+      <c r="E28" s="281" t="str">
         <f>IF(AB25=0,"零",IF(AB25-INT(AB25)=0,TEXT(AB25,"[DBNUM2]")&amp;"元整",IF(INT(AB25)=0,IF(INT(AB25*10)-AB25*10=0,TEXT((INT(AB25*10)-INT(AB25)*10),"[DBNUM2]")&amp;"角整",IF(INT(AB25*10)-INT(AB25)*10=0,TEXT(RIGHT(AB25,1),"[DBNUM2]")&amp;"分",TEXT(INT(AB25*10)-INT(AB25)*10,"[DBNUM2]")&amp;"角"&amp;TEXT(RIGHT(AB25,1),"[DBNUM2]")&amp;"分")),IF(INT(AB25*10)-AB25*10=0,TEXT(INT(AB25),"[DBNUM2]")&amp;"元"&amp;TEXT((INT(AB25*10)-INT(AB25)*10),"[DBNUM2]")&amp;"角整",TEXT(INT(AB25),"[DBNUM2]")&amp;"元"&amp;IF(INT(AB25*10)-INT(AB25)*10=0,"零",TEXT(INT(AB25*10)-INT(AB25)*10,"[DBNUM2]")&amp;"角")&amp;TEXT(RIGHT(AB25,1),"[DBNUM2]")&amp;"分"))))</f>
         <v>叁佰伍拾伍元整</v>
       </c>
-      <c r="F28" s="325"/>
-      <c r="G28" s="325"/>
-      <c r="H28" s="325"/>
-      <c r="I28" s="325"/>
-      <c r="J28" s="325"/>
-      <c r="K28" s="325"/>
-      <c r="L28" s="325"/>
-      <c r="M28" s="325"/>
-      <c r="N28" s="325"/>
-      <c r="O28" s="325"/>
-      <c r="P28" s="325"/>
-      <c r="Q28" s="325"/>
-      <c r="R28" s="325"/>
-      <c r="S28" s="325"/>
-      <c r="T28" s="325"/>
-      <c r="U28" s="325"/>
-      <c r="V28" s="325"/>
-      <c r="W28" s="325"/>
-      <c r="X28" s="326"/>
+      <c r="F28" s="282"/>
+      <c r="G28" s="282"/>
+      <c r="H28" s="282"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
+      <c r="K28" s="282"/>
+      <c r="L28" s="282"/>
+      <c r="M28" s="282"/>
+      <c r="N28" s="282"/>
+      <c r="O28" s="282"/>
+      <c r="P28" s="282"/>
+      <c r="Q28" s="282"/>
+      <c r="R28" s="282"/>
+      <c r="S28" s="282"/>
+      <c r="T28" s="282"/>
+      <c r="U28" s="282"/>
+      <c r="V28" s="282"/>
+      <c r="W28" s="282"/>
+      <c r="X28" s="283"/>
       <c r="Y28" s="20" t="s">
         <v>24</v>
       </c>
@@ -6165,244 +6159,244 @@
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
-      <c r="Y29" s="270"/>
-      <c r="Z29" s="270"/>
-      <c r="AA29" s="270"/>
-      <c r="AB29" s="270"/>
-      <c r="AC29" s="270"/>
-      <c r="AD29" s="270"/>
+      <c r="Y29" s="328"/>
+      <c r="Z29" s="328"/>
+      <c r="AA29" s="328"/>
+      <c r="AB29" s="328"/>
+      <c r="AC29" s="328"/>
+      <c r="AD29" s="328"/>
     </row>
     <row r="30" spans="1:32" ht="18" customHeight="1">
-      <c r="A30" s="266" t="s">
+      <c r="A30" s="298" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="299"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="299"/>
+      <c r="E30" s="299"/>
+      <c r="F30" s="299"/>
+      <c r="G30" s="299"/>
+      <c r="H30" s="299"/>
+      <c r="I30" s="299"/>
+      <c r="J30" s="299"/>
+      <c r="K30" s="299"/>
+      <c r="L30" s="299"/>
+      <c r="M30" s="299"/>
+      <c r="N30" s="299"/>
+      <c r="O30" s="299"/>
+      <c r="P30" s="299"/>
+      <c r="Q30" s="299"/>
+      <c r="R30" s="299"/>
+      <c r="S30" s="299"/>
+      <c r="T30" s="299"/>
+      <c r="U30" s="299"/>
+      <c r="V30" s="299"/>
+      <c r="W30" s="299"/>
+      <c r="X30" s="299"/>
+      <c r="Y30" s="299"/>
+      <c r="Z30" s="299"/>
+      <c r="AA30" s="299"/>
+      <c r="AB30" s="299"/>
+      <c r="AC30" s="299"/>
+      <c r="AD30" s="299"/>
+    </row>
+    <row r="31" spans="1:32" ht="18" customHeight="1">
+      <c r="A31" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="267"/>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="267"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="267"/>
-      <c r="K30" s="267"/>
-      <c r="L30" s="267"/>
-      <c r="M30" s="267"/>
-      <c r="N30" s="267"/>
-      <c r="O30" s="267"/>
-      <c r="P30" s="267"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="267"/>
-      <c r="S30" s="267"/>
-      <c r="T30" s="267"/>
-      <c r="U30" s="267"/>
-      <c r="V30" s="267"/>
-      <c r="W30" s="267"/>
-      <c r="X30" s="267"/>
-      <c r="Y30" s="267"/>
-      <c r="Z30" s="267"/>
-      <c r="AA30" s="267"/>
-      <c r="AB30" s="267"/>
-      <c r="AC30" s="267"/>
-      <c r="AD30" s="267"/>
-    </row>
-    <row r="31" spans="1:32" ht="18" customHeight="1">
-      <c r="A31" s="266" t="s">
+      <c r="B31" s="299"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="299"/>
+      <c r="E31" s="299"/>
+      <c r="F31" s="299"/>
+      <c r="G31" s="299"/>
+      <c r="H31" s="299"/>
+      <c r="I31" s="299"/>
+      <c r="J31" s="299"/>
+      <c r="K31" s="299"/>
+      <c r="L31" s="299"/>
+      <c r="M31" s="299"/>
+      <c r="N31" s="299"/>
+      <c r="O31" s="299"/>
+      <c r="P31" s="299"/>
+      <c r="Q31" s="299"/>
+      <c r="R31" s="299"/>
+      <c r="S31" s="299"/>
+      <c r="T31" s="299"/>
+      <c r="U31" s="299"/>
+      <c r="V31" s="299"/>
+      <c r="W31" s="299"/>
+      <c r="X31" s="299"/>
+      <c r="Y31" s="299"/>
+      <c r="Z31" s="299"/>
+      <c r="AA31" s="299"/>
+      <c r="AB31" s="299"/>
+      <c r="AC31" s="299"/>
+      <c r="AD31" s="299"/>
+    </row>
+    <row r="32" spans="1:32" ht="18" customHeight="1">
+      <c r="A32" s="298" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="267"/>
-      <c r="C31" s="267"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="267"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="267"/>
-      <c r="H31" s="267"/>
-      <c r="I31" s="267"/>
-      <c r="J31" s="267"/>
-      <c r="K31" s="267"/>
-      <c r="L31" s="267"/>
-      <c r="M31" s="267"/>
-      <c r="N31" s="267"/>
-      <c r="O31" s="267"/>
-      <c r="P31" s="267"/>
-      <c r="Q31" s="267"/>
-      <c r="R31" s="267"/>
-      <c r="S31" s="267"/>
-      <c r="T31" s="267"/>
-      <c r="U31" s="267"/>
-      <c r="V31" s="267"/>
-      <c r="W31" s="267"/>
-      <c r="X31" s="267"/>
-      <c r="Y31" s="267"/>
-      <c r="Z31" s="267"/>
-      <c r="AA31" s="267"/>
-      <c r="AB31" s="267"/>
-      <c r="AC31" s="267"/>
-      <c r="AD31" s="267"/>
-    </row>
-    <row r="32" spans="1:32" ht="18" customHeight="1">
-      <c r="A32" s="266" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="267"/>
-      <c r="C32" s="267"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="267"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="267"/>
-      <c r="H32" s="267"/>
-      <c r="I32" s="267"/>
-      <c r="J32" s="267"/>
-      <c r="K32" s="267"/>
-      <c r="L32" s="267"/>
-      <c r="M32" s="267"/>
-      <c r="N32" s="267"/>
-      <c r="O32" s="267"/>
-      <c r="P32" s="267"/>
-      <c r="Q32" s="267"/>
-      <c r="R32" s="267"/>
-      <c r="S32" s="267"/>
-      <c r="T32" s="267"/>
-      <c r="U32" s="267"/>
-      <c r="V32" s="267"/>
-      <c r="W32" s="267"/>
-      <c r="X32" s="267"/>
-      <c r="Y32" s="267"/>
-      <c r="Z32" s="267"/>
-      <c r="AA32" s="267"/>
-      <c r="AB32" s="267"/>
-      <c r="AC32" s="267"/>
-      <c r="AD32" s="267"/>
+      <c r="B32" s="299"/>
+      <c r="C32" s="299"/>
+      <c r="D32" s="299"/>
+      <c r="E32" s="299"/>
+      <c r="F32" s="299"/>
+      <c r="G32" s="299"/>
+      <c r="H32" s="299"/>
+      <c r="I32" s="299"/>
+      <c r="J32" s="299"/>
+      <c r="K32" s="299"/>
+      <c r="L32" s="299"/>
+      <c r="M32" s="299"/>
+      <c r="N32" s="299"/>
+      <c r="O32" s="299"/>
+      <c r="P32" s="299"/>
+      <c r="Q32" s="299"/>
+      <c r="R32" s="299"/>
+      <c r="S32" s="299"/>
+      <c r="T32" s="299"/>
+      <c r="U32" s="299"/>
+      <c r="V32" s="299"/>
+      <c r="W32" s="299"/>
+      <c r="X32" s="299"/>
+      <c r="Y32" s="299"/>
+      <c r="Z32" s="299"/>
+      <c r="AA32" s="299"/>
+      <c r="AB32" s="299"/>
+      <c r="AC32" s="299"/>
+      <c r="AD32" s="299"/>
     </row>
     <row r="33" spans="1:31" ht="18" customHeight="1">
-      <c r="A33" s="266"/>
-      <c r="B33" s="267"/>
-      <c r="C33" s="267"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="267"/>
-      <c r="F33" s="267"/>
-      <c r="G33" s="267"/>
-      <c r="H33" s="267"/>
-      <c r="I33" s="267"/>
-      <c r="J33" s="267"/>
-      <c r="K33" s="267"/>
-      <c r="L33" s="267"/>
-      <c r="M33" s="267"/>
-      <c r="N33" s="267"/>
-      <c r="O33" s="267"/>
-      <c r="P33" s="267"/>
-      <c r="Q33" s="267"/>
-      <c r="R33" s="267"/>
-      <c r="S33" s="267"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="267"/>
-      <c r="V33" s="267"/>
-      <c r="W33" s="267"/>
-      <c r="X33" s="267"/>
-      <c r="Y33" s="267"/>
-      <c r="Z33" s="267"/>
-      <c r="AA33" s="267"/>
-      <c r="AB33" s="267"/>
-      <c r="AC33" s="267"/>
-      <c r="AD33" s="267"/>
+      <c r="A33" s="298"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="299"/>
+      <c r="E33" s="299"/>
+      <c r="F33" s="299"/>
+      <c r="G33" s="299"/>
+      <c r="H33" s="299"/>
+      <c r="I33" s="299"/>
+      <c r="J33" s="299"/>
+      <c r="K33" s="299"/>
+      <c r="L33" s="299"/>
+      <c r="M33" s="299"/>
+      <c r="N33" s="299"/>
+      <c r="O33" s="299"/>
+      <c r="P33" s="299"/>
+      <c r="Q33" s="299"/>
+      <c r="R33" s="299"/>
+      <c r="S33" s="299"/>
+      <c r="T33" s="299"/>
+      <c r="U33" s="299"/>
+      <c r="V33" s="299"/>
+      <c r="W33" s="299"/>
+      <c r="X33" s="299"/>
+      <c r="Y33" s="299"/>
+      <c r="Z33" s="299"/>
+      <c r="AA33" s="299"/>
+      <c r="AB33" s="299"/>
+      <c r="AC33" s="299"/>
+      <c r="AD33" s="299"/>
     </row>
     <row r="34" spans="1:31" ht="18" customHeight="1">
-      <c r="A34" s="266"/>
-      <c r="B34" s="267"/>
-      <c r="C34" s="267"/>
-      <c r="D34" s="267"/>
-      <c r="E34" s="267"/>
-      <c r="F34" s="267"/>
-      <c r="G34" s="267"/>
-      <c r="H34" s="267"/>
-      <c r="I34" s="267"/>
-      <c r="J34" s="267"/>
-      <c r="K34" s="267"/>
-      <c r="L34" s="267"/>
-      <c r="M34" s="267"/>
-      <c r="N34" s="267"/>
-      <c r="O34" s="267"/>
-      <c r="P34" s="267"/>
-      <c r="Q34" s="267"/>
-      <c r="R34" s="267"/>
-      <c r="S34" s="267"/>
-      <c r="T34" s="267"/>
-      <c r="U34" s="267"/>
-      <c r="V34" s="267"/>
-      <c r="W34" s="267"/>
-      <c r="X34" s="267"/>
-      <c r="Y34" s="267"/>
-      <c r="Z34" s="267"/>
-      <c r="AA34" s="267"/>
-      <c r="AB34" s="267"/>
-      <c r="AC34" s="267"/>
-      <c r="AD34" s="267"/>
+      <c r="A34" s="298"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="299"/>
+      <c r="E34" s="299"/>
+      <c r="F34" s="299"/>
+      <c r="G34" s="299"/>
+      <c r="H34" s="299"/>
+      <c r="I34" s="299"/>
+      <c r="J34" s="299"/>
+      <c r="K34" s="299"/>
+      <c r="L34" s="299"/>
+      <c r="M34" s="299"/>
+      <c r="N34" s="299"/>
+      <c r="O34" s="299"/>
+      <c r="P34" s="299"/>
+      <c r="Q34" s="299"/>
+      <c r="R34" s="299"/>
+      <c r="S34" s="299"/>
+      <c r="T34" s="299"/>
+      <c r="U34" s="299"/>
+      <c r="V34" s="299"/>
+      <c r="W34" s="299"/>
+      <c r="X34" s="299"/>
+      <c r="Y34" s="299"/>
+      <c r="Z34" s="299"/>
+      <c r="AA34" s="299"/>
+      <c r="AB34" s="299"/>
+      <c r="AC34" s="299"/>
+      <c r="AD34" s="299"/>
     </row>
     <row r="35" spans="1:31" ht="18" customHeight="1">
-      <c r="A35" s="310"/>
-      <c r="B35" s="267"/>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="267"/>
-      <c r="H35" s="267"/>
-      <c r="I35" s="267"/>
-      <c r="J35" s="267"/>
-      <c r="K35" s="267"/>
-      <c r="L35" s="267"/>
-      <c r="M35" s="267"/>
-      <c r="N35" s="267"/>
-      <c r="O35" s="267"/>
-      <c r="P35" s="267"/>
-      <c r="Q35" s="267"/>
-      <c r="R35" s="267"/>
-      <c r="S35" s="267"/>
-      <c r="T35" s="267"/>
-      <c r="U35" s="267"/>
-      <c r="V35" s="267"/>
-      <c r="W35" s="267"/>
-      <c r="X35" s="267"/>
-      <c r="Y35" s="267"/>
-      <c r="Z35" s="267"/>
-      <c r="AA35" s="267"/>
-      <c r="AB35" s="267"/>
-      <c r="AC35" s="267"/>
-      <c r="AD35" s="267"/>
+      <c r="A35" s="300"/>
+      <c r="B35" s="299"/>
+      <c r="C35" s="299"/>
+      <c r="D35" s="299"/>
+      <c r="E35" s="299"/>
+      <c r="F35" s="299"/>
+      <c r="G35" s="299"/>
+      <c r="H35" s="299"/>
+      <c r="I35" s="299"/>
+      <c r="J35" s="299"/>
+      <c r="K35" s="299"/>
+      <c r="L35" s="299"/>
+      <c r="M35" s="299"/>
+      <c r="N35" s="299"/>
+      <c r="O35" s="299"/>
+      <c r="P35" s="299"/>
+      <c r="Q35" s="299"/>
+      <c r="R35" s="299"/>
+      <c r="S35" s="299"/>
+      <c r="T35" s="299"/>
+      <c r="U35" s="299"/>
+      <c r="V35" s="299"/>
+      <c r="W35" s="299"/>
+      <c r="X35" s="299"/>
+      <c r="Y35" s="299"/>
+      <c r="Z35" s="299"/>
+      <c r="AA35" s="299"/>
+      <c r="AB35" s="299"/>
+      <c r="AC35" s="299"/>
+      <c r="AD35" s="299"/>
     </row>
     <row r="36" spans="1:31" ht="24.75" customHeight="1">
-      <c r="A36" s="302" t="s">
+      <c r="A36" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="302"/>
-      <c r="C36" s="302"/>
-      <c r="D36" s="302"/>
-      <c r="E36" s="302"/>
-      <c r="F36" s="302"/>
-      <c r="G36" s="302"/>
-      <c r="H36" s="302"/>
-      <c r="I36" s="302"/>
-      <c r="J36" s="302"/>
-      <c r="K36" s="302"/>
-      <c r="L36" s="302"/>
-      <c r="M36" s="302"/>
-      <c r="N36" s="302"/>
-      <c r="O36" s="302"/>
-      <c r="P36" s="302"/>
-      <c r="Q36" s="302"/>
-      <c r="R36" s="302"/>
-      <c r="S36" s="302"/>
-      <c r="T36" s="302"/>
-      <c r="U36" s="302"/>
-      <c r="V36" s="302"/>
-      <c r="W36" s="302"/>
-      <c r="X36" s="302"/>
-      <c r="Y36" s="302"/>
-      <c r="Z36" s="302"/>
-      <c r="AA36" s="302"/>
-      <c r="AB36" s="302"/>
-      <c r="AC36" s="302"/>
-      <c r="AD36" s="302"/>
+      <c r="B36" s="320"/>
+      <c r="C36" s="320"/>
+      <c r="D36" s="320"/>
+      <c r="E36" s="320"/>
+      <c r="F36" s="320"/>
+      <c r="G36" s="320"/>
+      <c r="H36" s="320"/>
+      <c r="I36" s="320"/>
+      <c r="J36" s="320"/>
+      <c r="K36" s="320"/>
+      <c r="L36" s="320"/>
+      <c r="M36" s="320"/>
+      <c r="N36" s="320"/>
+      <c r="O36" s="320"/>
+      <c r="P36" s="320"/>
+      <c r="Q36" s="320"/>
+      <c r="R36" s="320"/>
+      <c r="S36" s="320"/>
+      <c r="T36" s="320"/>
+      <c r="U36" s="320"/>
+      <c r="V36" s="320"/>
+      <c r="W36" s="320"/>
+      <c r="X36" s="320"/>
+      <c r="Y36" s="320"/>
+      <c r="Z36" s="320"/>
+      <c r="AA36" s="320"/>
+      <c r="AB36" s="320"/>
+      <c r="AC36" s="320"/>
+      <c r="AD36" s="320"/>
     </row>
     <row r="37" spans="1:31" ht="16.5" customHeight="1">
       <c r="A37" s="43"/>
@@ -6442,171 +6436,171 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
-      <c r="AB37" s="303" t="s">
+      <c r="AB37" s="321" t="s">
         <v>4</v>
       </c>
-      <c r="AC37" s="304"/>
-      <c r="AD37" s="304"/>
+      <c r="AC37" s="322"/>
+      <c r="AD37" s="322"/>
     </row>
     <row r="38" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A38" s="292"/>
-      <c r="B38" s="292"/>
-      <c r="C38" s="293"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="300"/>
-      <c r="F38" s="300"/>
-      <c r="G38" s="298"/>
-      <c r="H38" s="297"/>
-      <c r="I38" s="298"/>
-      <c r="J38" s="297"/>
-      <c r="K38" s="298"/>
-      <c r="L38" s="299"/>
-      <c r="M38" s="300"/>
-      <c r="N38" s="300"/>
-      <c r="O38" s="300"/>
-      <c r="P38" s="300"/>
-      <c r="Q38" s="300"/>
-      <c r="R38" s="300"/>
-      <c r="S38" s="300"/>
-      <c r="T38" s="300"/>
-      <c r="U38" s="300"/>
-      <c r="V38" s="300"/>
-      <c r="W38" s="300"/>
-      <c r="X38" s="300"/>
-      <c r="Y38" s="300"/>
-      <c r="Z38" s="300"/>
-      <c r="AA38" s="298"/>
-      <c r="AB38" s="311"/>
-      <c r="AC38" s="312"/>
-      <c r="AD38" s="312"/>
+      <c r="A38" s="273"/>
+      <c r="B38" s="273"/>
+      <c r="C38" s="274"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="271"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="272"/>
+      <c r="H38" s="276"/>
+      <c r="I38" s="272"/>
+      <c r="J38" s="276"/>
+      <c r="K38" s="272"/>
+      <c r="L38" s="275"/>
+      <c r="M38" s="271"/>
+      <c r="N38" s="271"/>
+      <c r="O38" s="271"/>
+      <c r="P38" s="271"/>
+      <c r="Q38" s="271"/>
+      <c r="R38" s="271"/>
+      <c r="S38" s="271"/>
+      <c r="T38" s="271"/>
+      <c r="U38" s="271"/>
+      <c r="V38" s="271"/>
+      <c r="W38" s="271"/>
+      <c r="X38" s="271"/>
+      <c r="Y38" s="271"/>
+      <c r="Z38" s="271"/>
+      <c r="AA38" s="272"/>
+      <c r="AB38" s="294"/>
+      <c r="AC38" s="295"/>
+      <c r="AD38" s="295"/>
     </row>
     <row r="39" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A39" s="292"/>
-      <c r="B39" s="292"/>
-      <c r="C39" s="293"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="300"/>
-      <c r="F39" s="300"/>
-      <c r="G39" s="298"/>
-      <c r="H39" s="297"/>
-      <c r="I39" s="298"/>
-      <c r="J39" s="297"/>
-      <c r="K39" s="298"/>
-      <c r="L39" s="299"/>
-      <c r="M39" s="300"/>
-      <c r="N39" s="300"/>
-      <c r="O39" s="300"/>
-      <c r="P39" s="300"/>
-      <c r="Q39" s="300"/>
-      <c r="R39" s="300"/>
-      <c r="S39" s="300"/>
-      <c r="T39" s="300"/>
-      <c r="U39" s="300"/>
-      <c r="V39" s="300"/>
-      <c r="W39" s="300"/>
-      <c r="X39" s="300"/>
-      <c r="Y39" s="300"/>
-      <c r="Z39" s="300"/>
-      <c r="AA39" s="298"/>
-      <c r="AB39" s="311"/>
-      <c r="AC39" s="312"/>
-      <c r="AD39" s="312"/>
+      <c r="A39" s="273"/>
+      <c r="B39" s="273"/>
+      <c r="C39" s="274"/>
+      <c r="D39" s="275"/>
+      <c r="E39" s="271"/>
+      <c r="F39" s="271"/>
+      <c r="G39" s="272"/>
+      <c r="H39" s="276"/>
+      <c r="I39" s="272"/>
+      <c r="J39" s="276"/>
+      <c r="K39" s="272"/>
+      <c r="L39" s="275"/>
+      <c r="M39" s="271"/>
+      <c r="N39" s="271"/>
+      <c r="O39" s="271"/>
+      <c r="P39" s="271"/>
+      <c r="Q39" s="271"/>
+      <c r="R39" s="271"/>
+      <c r="S39" s="271"/>
+      <c r="T39" s="271"/>
+      <c r="U39" s="271"/>
+      <c r="V39" s="271"/>
+      <c r="W39" s="271"/>
+      <c r="X39" s="271"/>
+      <c r="Y39" s="271"/>
+      <c r="Z39" s="271"/>
+      <c r="AA39" s="272"/>
+      <c r="AB39" s="294"/>
+      <c r="AC39" s="295"/>
+      <c r="AD39" s="295"/>
     </row>
     <row r="40" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A40" s="292"/>
-      <c r="B40" s="292"/>
-      <c r="C40" s="293"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="300"/>
-      <c r="F40" s="300"/>
-      <c r="G40" s="298"/>
-      <c r="H40" s="297"/>
-      <c r="I40" s="298"/>
-      <c r="J40" s="297"/>
-      <c r="K40" s="298"/>
-      <c r="L40" s="299"/>
-      <c r="M40" s="300"/>
-      <c r="N40" s="300"/>
-      <c r="O40" s="300"/>
-      <c r="P40" s="300"/>
-      <c r="Q40" s="300"/>
-      <c r="R40" s="300"/>
-      <c r="S40" s="300"/>
-      <c r="T40" s="300"/>
-      <c r="U40" s="300"/>
-      <c r="V40" s="300"/>
-      <c r="W40" s="300"/>
-      <c r="X40" s="300"/>
-      <c r="Y40" s="300"/>
-      <c r="Z40" s="300"/>
-      <c r="AA40" s="298"/>
-      <c r="AB40" s="311"/>
-      <c r="AC40" s="312"/>
-      <c r="AD40" s="312"/>
+      <c r="A40" s="273"/>
+      <c r="B40" s="273"/>
+      <c r="C40" s="274"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="271"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="272"/>
+      <c r="H40" s="276"/>
+      <c r="I40" s="272"/>
+      <c r="J40" s="276"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="275"/>
+      <c r="M40" s="271"/>
+      <c r="N40" s="271"/>
+      <c r="O40" s="271"/>
+      <c r="P40" s="271"/>
+      <c r="Q40" s="271"/>
+      <c r="R40" s="271"/>
+      <c r="S40" s="271"/>
+      <c r="T40" s="271"/>
+      <c r="U40" s="271"/>
+      <c r="V40" s="271"/>
+      <c r="W40" s="271"/>
+      <c r="X40" s="271"/>
+      <c r="Y40" s="271"/>
+      <c r="Z40" s="271"/>
+      <c r="AA40" s="272"/>
+      <c r="AB40" s="294"/>
+      <c r="AC40" s="295"/>
+      <c r="AD40" s="295"/>
     </row>
     <row r="41" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A41" s="292"/>
-      <c r="B41" s="292"/>
-      <c r="C41" s="293"/>
-      <c r="D41" s="294"/>
-      <c r="E41" s="295"/>
-      <c r="F41" s="295"/>
-      <c r="G41" s="296"/>
-      <c r="H41" s="297"/>
-      <c r="I41" s="298"/>
-      <c r="J41" s="297"/>
-      <c r="K41" s="298"/>
-      <c r="L41" s="294"/>
-      <c r="M41" s="300"/>
-      <c r="N41" s="300"/>
-      <c r="O41" s="300"/>
-      <c r="P41" s="300"/>
-      <c r="Q41" s="300"/>
-      <c r="R41" s="300"/>
-      <c r="S41" s="300"/>
-      <c r="T41" s="300"/>
-      <c r="U41" s="300"/>
-      <c r="V41" s="300"/>
-      <c r="W41" s="300"/>
-      <c r="X41" s="300"/>
-      <c r="Y41" s="300"/>
-      <c r="Z41" s="300"/>
-      <c r="AA41" s="298"/>
-      <c r="AB41" s="311"/>
-      <c r="AC41" s="312"/>
-      <c r="AD41" s="312"/>
+      <c r="A41" s="273"/>
+      <c r="B41" s="273"/>
+      <c r="C41" s="274"/>
+      <c r="D41" s="270"/>
+      <c r="E41" s="311"/>
+      <c r="F41" s="311"/>
+      <c r="G41" s="312"/>
+      <c r="H41" s="276"/>
+      <c r="I41" s="272"/>
+      <c r="J41" s="276"/>
+      <c r="K41" s="272"/>
+      <c r="L41" s="270"/>
+      <c r="M41" s="271"/>
+      <c r="N41" s="271"/>
+      <c r="O41" s="271"/>
+      <c r="P41" s="271"/>
+      <c r="Q41" s="271"/>
+      <c r="R41" s="271"/>
+      <c r="S41" s="271"/>
+      <c r="T41" s="271"/>
+      <c r="U41" s="271"/>
+      <c r="V41" s="271"/>
+      <c r="W41" s="271"/>
+      <c r="X41" s="271"/>
+      <c r="Y41" s="271"/>
+      <c r="Z41" s="271"/>
+      <c r="AA41" s="272"/>
+      <c r="AB41" s="294"/>
+      <c r="AC41" s="295"/>
+      <c r="AD41" s="295"/>
     </row>
     <row r="42" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A42" s="292"/>
-      <c r="B42" s="292"/>
-      <c r="C42" s="293"/>
-      <c r="D42" s="294"/>
-      <c r="E42" s="300"/>
-      <c r="F42" s="300"/>
-      <c r="G42" s="298"/>
-      <c r="H42" s="297"/>
-      <c r="I42" s="298"/>
-      <c r="J42" s="297"/>
-      <c r="K42" s="298"/>
-      <c r="L42" s="294"/>
-      <c r="M42" s="300"/>
-      <c r="N42" s="300"/>
-      <c r="O42" s="300"/>
-      <c r="P42" s="300"/>
-      <c r="Q42" s="300"/>
-      <c r="R42" s="300"/>
-      <c r="S42" s="300"/>
-      <c r="T42" s="300"/>
-      <c r="U42" s="300"/>
-      <c r="V42" s="300"/>
-      <c r="W42" s="300"/>
-      <c r="X42" s="300"/>
-      <c r="Y42" s="300"/>
-      <c r="Z42" s="300"/>
-      <c r="AA42" s="298"/>
-      <c r="AB42" s="311"/>
-      <c r="AC42" s="312"/>
-      <c r="AD42" s="312"/>
+      <c r="A42" s="273"/>
+      <c r="B42" s="273"/>
+      <c r="C42" s="274"/>
+      <c r="D42" s="270"/>
+      <c r="E42" s="271"/>
+      <c r="F42" s="271"/>
+      <c r="G42" s="272"/>
+      <c r="H42" s="276"/>
+      <c r="I42" s="272"/>
+      <c r="J42" s="276"/>
+      <c r="K42" s="272"/>
+      <c r="L42" s="270"/>
+      <c r="M42" s="271"/>
+      <c r="N42" s="271"/>
+      <c r="O42" s="271"/>
+      <c r="P42" s="271"/>
+      <c r="Q42" s="271"/>
+      <c r="R42" s="271"/>
+      <c r="S42" s="271"/>
+      <c r="T42" s="271"/>
+      <c r="U42" s="271"/>
+      <c r="V42" s="271"/>
+      <c r="W42" s="271"/>
+      <c r="X42" s="271"/>
+      <c r="Y42" s="271"/>
+      <c r="Z42" s="271"/>
+      <c r="AA42" s="272"/>
+      <c r="AB42" s="294"/>
+      <c r="AC42" s="295"/>
+      <c r="AD42" s="295"/>
       <c r="AE42" s="114"/>
     </row>
     <row r="43" spans="1:31" ht="16.5" customHeight="1">
@@ -6752,6 +6746,160 @@
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="A32:AD32"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="Y29:AD29"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:AA39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A33:AD33"/>
+    <mergeCell ref="A36:AD36"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="C27:P27"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A34:AD34"/>
+    <mergeCell ref="A35:AD35"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="L38:AA38"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:AA40"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="L42:AA42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="A30:AD30"/>
+    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D26:X26"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="V25:X25"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="V22:X22"/>
     <mergeCell ref="D22:F22"/>
@@ -6776,160 +6924,6 @@
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="D26:X26"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="L42:AA42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="A30:AD30"/>
-    <mergeCell ref="A31:AD31"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A34:AD34"/>
-    <mergeCell ref="A35:AD35"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="L38:AA38"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:AA40"/>
-    <mergeCell ref="C27:P27"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:AA39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A33:AD33"/>
-    <mergeCell ref="A36:AD36"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="A32:AD32"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="Y29:AD29"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="M14:O14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7161,8 +7155,8 @@
       <c r="K1" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="335"/>
-      <c r="M1" s="336"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="338"/>
       <c r="N1" s="68"/>
       <c r="O1" s="80"/>
       <c r="P1" s="81"/>
@@ -7210,8 +7204,8 @@
       <c r="N3" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="330"/>
-      <c r="P3" s="331"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="333"/>
     </row>
     <row r="4" spans="1:16" ht="18.75">
       <c r="A4" s="129"/>
@@ -7224,12 +7218,12 @@
       <c r="H4" s="5"/>
       <c r="I4" s="29"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="337"/>
-      <c r="L4" s="338"/>
-      <c r="M4" s="339"/>
-      <c r="N4" s="332"/>
-      <c r="O4" s="333"/>
-      <c r="P4" s="334"/>
+      <c r="K4" s="339"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="341"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="335"/>
+      <c r="P4" s="336"/>
     </row>
     <row r="5" spans="1:16" ht="15">
       <c r="A5" s="34" t="s">
@@ -7309,27 +7303,27 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A9" s="244" t="s">
+      <c r="A9" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="246"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="244" t="s">
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="246"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="244" t="s">
+      <c r="F9" s="259"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="257" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="256" t="s">
+      <c r="I9" s="259"/>
+      <c r="J9" s="259"/>
+      <c r="K9" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="257"/>
-      <c r="M9" s="340"/>
+      <c r="L9" s="249"/>
+      <c r="M9" s="342"/>
       <c r="N9" s="63" t="s">
         <v>57</v>
       </c>
@@ -7341,14 +7335,14 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="342" t="s">
+      <c r="A10" s="330" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="343"/>
-      <c r="C10" s="244" t="s">
+      <c r="B10" s="331"/>
+      <c r="C10" s="257" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="245"/>
+      <c r="D10" s="258"/>
       <c r="E10" s="61" t="s">
         <v>60</v>
       </c>
@@ -7358,14 +7352,14 @@
       <c r="G10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="244" t="s">
+      <c r="H10" s="257" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="259"/>
-      <c r="M10" s="341"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="250"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="343"/>
       <c r="N10" s="72" t="s">
         <v>81</v>
       </c>
@@ -8424,17 +8418,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K9:M10"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K9:M10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.36" right="0.18" top="0.51" bottom="0.31" header="0.5" footer="0.18"/>
